--- a/node-crawler/lecture/xlsx/result2.xlsx
+++ b/node-crawler/lecture/xlsx/result2.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="1:C11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -401,6 +401,9 @@
       <c r="B2" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=18847</v>
       </c>
+      <c r="C2">
+        <v>9.33</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -409,6 +412,9 @@
       <c r="B3" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=62266</v>
       </c>
+      <c r="C3">
+        <v>9.07</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -417,6 +423,9 @@
       <c r="B4" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=24452</v>
       </c>
+      <c r="C4">
+        <v>9.39</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -425,6 +434,9 @@
       <c r="B5" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=31794</v>
       </c>
+      <c r="C5">
+        <v>9.28</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -433,6 +445,9 @@
       <c r="B6" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=72363</v>
       </c>
+      <c r="C6">
+        <v>8.79</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -441,6 +456,9 @@
       <c r="B7" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=100931</v>
       </c>
+      <c r="C7">
+        <v>9.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -449,6 +467,9 @@
       <c r="B8" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=61521</v>
       </c>
+      <c r="C8">
+        <v>8.85</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -457,6 +478,9 @@
       <c r="B9" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=30688</v>
       </c>
+      <c r="C9">
+        <v>9.22</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -465,6 +489,9 @@
       <c r="B10" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=62586</v>
       </c>
+      <c r="C10">
+        <v>9.33</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -473,11 +500,14 @@
       <c r="B11" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=37148</v>
       </c>
+      <c r="C11">
+        <v>9.08</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="1:C11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C11"/>
   </ignoredErrors>
 </worksheet>
 </file>
